--- a/Καλεσμένοι Coronovirus.xlsx
+++ b/Καλεσμένοι Coronovirus.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSIMIANAKIS\Documents\Σήφης Συμιανάκης\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSIMIANAKIS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>Καλεσμένοι</t>
   </si>
@@ -146,9 +146,6 @@
     <t>Φίλοι Νονού</t>
   </si>
   <si>
-    <t>Αμφιλεγόμενοι</t>
-  </si>
-  <si>
     <t>Αδέρφια Κουσανάκια</t>
   </si>
   <si>
@@ -161,12 +158,6 @@
     <t>Σηφάκης</t>
   </si>
   <si>
-    <t>Ορέστης</t>
-  </si>
-  <si>
-    <t>Φάνης Ορφανουδάκκης</t>
-  </si>
-  <si>
     <t>Διαμονή Μεσσαρά</t>
   </si>
   <si>
@@ -174,6 +165,18 @@
   </si>
   <si>
     <t>✓</t>
+  </si>
+  <si>
+    <t>&gt;10 ετών</t>
+  </si>
+  <si>
+    <t>Οικογένεια</t>
+  </si>
+  <si>
+    <t>Φίλοι</t>
+  </si>
+  <si>
+    <t>Νονός</t>
   </si>
 </sst>
 </file>
@@ -199,15 +202,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -217,13 +211,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +233,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -275,14 +281,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -290,6 +295,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -571,22 +578,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="2" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,35 +604,38 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="D2">
-        <f>SUM(B2:C2)</f>
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -632,48 +645,48 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D35" si="0">SUM(B3:C3)</f>
-        <v>3</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3">
+        <f t="shared" ref="E3:E39" si="0">SUM(B3:D3)</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -683,614 +696,609 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
       <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
       <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
       <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25">
+        <f>SUM(E2:E18)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
+      <c r="J26">
+        <f>SUM(E19:E37)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27">
+        <f>SUM(E38:E39)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="F32" s="5"/>
+      <c r="G32" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="3">
+        <f>SUM(B2:B39)</f>
+        <v>78</v>
+      </c>
+      <c r="C40" s="3">
+        <f>SUM(C2:C39)</f>
+        <v>2</v>
+      </c>
+      <c r="D40" s="3">
+        <f>SUM(D2:D39)</f>
         <v>23</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="4">
-        <f>SUM(B2:B35)</f>
-        <v>69</v>
-      </c>
-      <c r="C36" s="4">
-        <f>SUM(C2:C35)</f>
-        <v>21</v>
-      </c>
-      <c r="D36" s="4">
-        <f>SUM(D2:D35)</f>
-        <v>90</v>
-      </c>
-      <c r="E36">
+      <c r="E40" s="3">
+        <f>SUM(E2:E39)</f>
+        <v>103</v>
+      </c>
+      <c r="F40">
         <v>12</v>
       </c>
-      <c r="F36">
+      <c r="G40">
         <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42">
-        <v>4</v>
-      </c>
-      <c r="D42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
